--- a/liga_serie_C/datasets_liga_serie_C/Pontuacoes_Liga_1_Turno_Completa.xlsx
+++ b/liga_serie_C/datasets_liga_serie_C/Pontuacoes_Liga_1_Turno_Completa.xlsx
@@ -561,7 +561,7 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>59.86</v>
+        <v>63.76</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -569,7 +569,7 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>69.56</v>
+        <v>71.16</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -577,7 +577,7 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>53.36</v>
+        <v>57.26</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -585,7 +585,7 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>58.4</v>
+        <v>59.69</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -593,7 +593,7 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>45.46</v>
+        <v>49.36</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -601,7 +601,7 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>50.9</v>
+        <v>56.09</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -617,7 +617,7 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>54.36</v>
+        <v>58.26</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -625,7 +625,7 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>69.76000000000001</v>
+        <v>71.36</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -633,7 +633,7 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>47.36</v>
+        <v>48.96</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -641,7 +641,7 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>73.66</v>
+        <v>81.76000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -649,7 +649,7 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <v>26.21</v>
+        <v>31.61</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -665,7 +665,7 @@
         <v>32</v>
       </c>
       <c r="B15">
-        <v>51.05</v>
+        <v>54.95</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -681,7 +681,7 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>50.4</v>
+        <v>55.59</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -689,7 +689,7 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>65.26000000000001</v>
+        <v>66.86</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -697,7 +697,7 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>50.76</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -705,7 +705,7 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>59.86</v>
+        <v>63.76</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -713,7 +713,7 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>46.26</v>
+        <v>47.86</v>
       </c>
     </row>
     <row r="22" spans="1:2">

--- a/liga_serie_C/datasets_liga_serie_C/Pontuacoes_Liga_1_Turno_Completa.xlsx
+++ b/liga_serie_C/datasets_liga_serie_C/Pontuacoes_Liga_1_Turno_Completa.xlsx
@@ -561,7 +561,7 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>63.76</v>
+        <v>68.06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -569,7 +569,7 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>71.16</v>
+        <v>73.76000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -577,7 +577,7 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>57.26</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -585,7 +585,7 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>59.69</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -593,7 +593,7 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>49.36</v>
+        <v>53.66</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -601,7 +601,7 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>56.09</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -609,7 +609,7 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>56.65</v>
+        <v>57.45</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -617,7 +617,7 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>58.26</v>
+        <v>62.56</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -625,7 +625,7 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>71.36</v>
+        <v>73.95999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -633,7 +633,7 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>48.96</v>
+        <v>51.56</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -641,7 +641,7 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>81.76000000000001</v>
+        <v>84.26000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -649,7 +649,7 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <v>31.61</v>
+        <v>43.51</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -657,7 +657,7 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>44.46</v>
+        <v>50.26</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -665,7 +665,7 @@
         <v>32</v>
       </c>
       <c r="B15">
-        <v>54.95</v>
+        <v>59.25</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -673,7 +673,7 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>34.36</v>
+        <v>60.16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -681,7 +681,7 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>55.59</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -697,7 +697,7 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>54.66</v>
+        <v>58.96</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -705,7 +705,7 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>63.76</v>
+        <v>68.06</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -713,7 +713,7 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>47.86</v>
+        <v>51.26</v>
       </c>
     </row>
     <row r="22" spans="1:2">
